--- a/data/trans_bre/IP1020-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP1020-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 0,0</t>
+          <t>-5,47; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 1,55</t>
+          <t>-9,05; 1,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 0,0</t>
+          <t>-6,46; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 4,56</t>
+          <t>-9,45; 4,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-90,38; 78,43</t>
+          <t>-90,37; 70,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,16</t>
+          <t>-0,89; 1,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,93</t>
+          <t>0,16; 2,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,6</t>
+          <t>-0,86; 1,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,13</t>
+          <t>-1,99; 1,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-72,72; 278,73</t>
+          <t>-71,52; 312,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 778,76</t>
+          <t>1,41; 803,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-45,34; 234,12</t>
+          <t>-49,56; 223,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 101,27</t>
+          <t>-47,72; 77,98</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,8</t>
+          <t>-0,78; 1,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 5,69</t>
+          <t>0,12; 5,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 0,05</t>
+          <t>-4,8; -0,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 5,04</t>
+          <t>-1,74; 4,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,49; —</t>
+          <t>-46,35; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 80,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,39; 423,64</t>
+          <t>-52,81; 405,78</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,68</t>
+          <t>-0,87; 0,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,46</t>
+          <t>0,13; 2,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,53</t>
+          <t>-1,45; 0,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,84</t>
+          <t>-1,67; 1,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-68,25; 124,9</t>
+          <t>-69,62; 153,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 256,29</t>
+          <t>3,0; 260,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-64,44; 49,06</t>
+          <t>-66,1; 54,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,14; 78,34</t>
+          <t>-38,18; 74,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1020-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP1020-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,5%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-5,44; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-8,72; 1,41</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-6,69; 0,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-10,07; 4,27</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-90,19; 78,12</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,36; 317,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-51,05%</t>
+          <t>166,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,7%</t>
+          <t>-2,06%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 0,0</t>
+          <t>-0,93; 1,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 1,28</t>
+          <t>0,2; 2,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 0,0</t>
+          <t>-0,71; 1,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 4,79</t>
+          <t>-2,31; 1,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,59; 256,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-90,37; 70,79</t>
+          <t>-6,59; 810,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,36; 264,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,76; 84,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>166,2%</t>
+          <t>326,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>-74,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>52,46%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,19</t>
+          <t>-0,76; 1,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,85</t>
+          <t>0,33; 5,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,65</t>
+          <t>-4,91; -0,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,8</t>
+          <t>-2,02; 5,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-71,52; 312,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 803,21</t>
+          <t>-62,07; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-49,56; 223,34</t>
+          <t>-100,0; 75,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,72; 77,98</t>
+          <t>-58,95; 432,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>-11,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>326,19%</t>
+          <t>84,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-74,85%</t>
+          <t>-22,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,8</t>
+          <t>-0,9; 0,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 5,4</t>
+          <t>0,03; 2,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,8; -0,05</t>
+          <t>-1,34; 0,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,98</t>
+          <t>-1,38; 1,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,83; 132,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,35; —</t>
+          <t>-1,33; 258,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 80,15</t>
+          <t>-62,44; 61,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,81; 405,78</t>
+          <t>-35,81; 71,38</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-11,41%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>84,7%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-22,83%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 0,62</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 2,44</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 0,55</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 1,99</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-69,62; 153,95</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,0; 260,88</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-66,1; 54,97</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-38,18; 74,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
